--- a/N_Reines.xlsx
+++ b/N_Reines.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755FA43-811F-4F8B-8661-74AD48A13EFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C15796-7802-4A1A-875A-BB2D6B3756B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="data_queens" sheetId="1" r:id="rId1"/>
+    <sheet name="analysis_queens" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,7 +108,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -212,7 +212,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -374,7 +374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$53</c:f>
+              <c:f>data_queens!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -555,7 +555,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -717,7 +717,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$53</c:f>
+              <c:f>data_queens!$L$3:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -898,7 +898,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1060,7 +1060,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$53</c:f>
+              <c:f>data_queens!$T$3:$T$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1253,7 +1253,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1415,7 +1415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$53</c:f>
+              <c:f>data_queens!$AB$3:$AB$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1910,7 +1910,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2014,7 +2014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2176,7 +2176,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$53</c:f>
+              <c:f>data_queens!$B$3:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2375,7 +2375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2537,7 +2537,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$53</c:f>
+              <c:f>data_queens!$J$3:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2736,7 +2736,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2898,7 +2898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$53</c:f>
+              <c:f>data_queens!$R$3:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3097,7 +3097,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3259,7 +3259,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Z$3:$Z$53</c:f>
+              <c:f>data_queens!$Z$3:$Z$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3761,7 +3761,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3865,7 +3865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4027,7 +4027,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$53</c:f>
+              <c:f>data_queens!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4208,7 +4208,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4370,7 +4370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$53</c:f>
+              <c:f>data_queens!$L$3:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4551,7 +4551,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4713,7 +4713,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$T$3:$T$53</c:f>
+              <c:f>data_queens!$T$3:$T$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4906,7 +4906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$53</c:f>
+              <c:f>data_queens!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5068,7 +5068,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$AB$3:$AB$53</c:f>
+              <c:f>data_queens!$AB$3:$AB$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -7615,11 +7615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11961,11 +11961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFA2DEB-E6E3-4635-BE5A-4409763A9C19}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/N_Reines.xlsx
+++ b/N_Reines.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C15796-7802-4A1A-875A-BB2D6B3756B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B407514C-1B9E-471A-A6E9-501EB5971714}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data_queens" sheetId="1" r:id="rId1"/>
-    <sheet name="analysis_queens" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Temps FC</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>DC</t>
+  </si>
+  <si>
+    <t>DC_Sym</t>
+  </si>
+  <si>
+    <t>Rapport de vitesse</t>
+  </si>
+  <si>
+    <t>Rapport du nombre de nœuds</t>
+  </si>
+  <si>
+    <t>Nombre de reines</t>
   </si>
 </sst>
 </file>
@@ -108,1809 +120,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="1800"/>
-              <a:t>Nombre d'échecs pour les N reines</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_queens!$D$3:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7840</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1812</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>48172</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2288</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFA5-4AA5-A189-C631CC34FCB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>AC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_queens!$L$3:$L$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1178</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1389</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4117</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1166</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>29413</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1336</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFA5-4AA5-A189-C631CC34FCB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>AC_Alea</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_queens!$T$3:$T$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>641</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1914</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1404</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>586</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3358</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1526</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1117</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1237</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>664</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2777</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1781</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>962</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>74014</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>441</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AFA5-4AA5-A189-C631CC34FCB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>DS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>data_queens!$AB$3:$AB$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>635</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>406</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2219</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4987</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1812</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4992</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4977</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4965</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4975</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2288</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4971</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4970</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4962</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AFA5-4AA5-A189-C631CC34FCB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="482391824"/>
-        <c:axId val="482392808"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="482391824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="101"/>
-          <c:min val="49"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1200"/>
-                  <a:t>Nombre de reines</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482392808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="482392808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1200"/>
-                  <a:t>Nombre d'échecs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="482391824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2014,7 +224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2176,7 +386,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$B$3:$B$53</c:f>
+              <c:f>Sheet1!$B$3:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2375,7 +585,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2537,7 +747,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$J$3:$J$53</c:f>
+              <c:f>Sheet1!$J$3:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2736,7 +946,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2898,7 +1108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$R$3:$R$53</c:f>
+              <c:f>Sheet1!$R$3:$R$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3097,7 +1307,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3259,7 +1469,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$Z$3:$Z$53</c:f>
+              <c:f>Sheet1!$Z$3:$Z$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3758,10 +1968,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3865,7 +2075,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4027,7 +2237,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$D$3:$D$53</c:f>
+              <c:f>Sheet1!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4208,7 +2418,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4370,7 +2580,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$L$3:$L$53</c:f>
+              <c:f>Sheet1!$L$3:$L$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4551,7 +2761,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4713,7 +2923,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$T$3:$T$53</c:f>
+              <c:f>Sheet1!$T$3:$T$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -4906,7 +3116,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data_queens!$A$3:$A$53</c:f>
+              <c:f>Sheet1!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5068,7 +3278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data_queens!$AB$3:$AB$53</c:f>
+              <c:f>Sheet1!$AB$3:$AB$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -5560,6 +3770,1273 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Facteur de gain temporel quand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> la symétrie est brisée</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rapport de vitesse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="548235"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$3:$AP$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$3:$AQ$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.97142720903538327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4086871841366699E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25373463621547554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2777740984800854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9098305725481506E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25301111376020557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.20408376759552593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1477245942145502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0415916434250438E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.63360321932677177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13461483353679427</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.25899428653759837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23893990159423528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.84514428550912235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31386829556925266</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.13380323074056111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.041745090171414E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.29816439512751147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-7.7922600681506693E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.7692660382203886E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.9079162345632255E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45405479247266833</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.49852482893993755</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.7619686546907625E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6456949283870776E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9751249918451439</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6218011052980161E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19004553687882941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.26190461323098702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.124986695390497E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.7851948036594991E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4780821280221295</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3515642971629163</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.6923333425034102E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.47299765000060012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1753131429624277</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.76666626930241</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.12721965698743043</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.6789592743799808</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.22535207326280526</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-7.0000171661377952E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.815015260710461</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.7493113224934214E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.16552102947527447</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.0457061666897101E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4949749390924434</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.1621050095492893</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.215641730263801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6460200704178991</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8057556160382577</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.18807284013874059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAFA-4338-99D8-45EBE071EE34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="497399472"/>
+        <c:axId val="497397832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497399472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1200"/>
+                  <a:t>Nombre de reines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497397832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497397832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1200"/>
+                  <a:t>Facteur d'accélération</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497399472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Facteur de gain spatial quand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> la symétrie est brisée</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rapport de vitesse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="548235"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AP$3:$AP$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AR$3:$AR$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>5.7468354430379751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12244897959183665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.363636363636367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9187227866473107E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1086956521739131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.70555555555555549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.78461789679947747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1490384615384617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.85256410256410253</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7627118644067803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.98706941139960691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5949367088607596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.726457399103139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.202247191011236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.67503136762860727</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.1216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.18181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11328125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.95152690256907413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.29545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.37662337662337664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.61643835616438</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39914163090128751</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0946745562130173</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8529411764705879</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.20143884892086328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>111.37777777777778</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.50561797752809</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.35344827586206895</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.202247191011236</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.96737948532076845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1313755795981453</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.6367924528301887</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.7940828402366864</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2346368715083802</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.94459833795014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.51776649746192893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.883052527254625E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13978494623655924</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.822222222222223</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.7903225806451619</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55.764044943820224</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59.891566265060241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.70858013200203085</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40816326530612246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB76-4AB4-9F30-D24AE147DB0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="497399472"/>
+        <c:axId val="497397832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497399472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1200"/>
+                  <a:t>Nombre de reines</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497397832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497397832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1200"/>
+                  <a:t>Facteur de gain spatial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497399472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5601,46 +5078,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6712,564 +6149,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>71436</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5282178A-17C0-4E79-A2C5-CD4978A2BD7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7311,16 +6191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7342,6 +6222,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4B8110-6653-4E18-8C48-76D6CD168A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12254556-4DF8-4D85-8084-67CFD5B8F733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7611,17 +6567,274 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AR3" sqref="AR3:AR54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="42" max="42" width="16.5703125" customWidth="1"/>
+    <col min="43" max="43" width="19.28515625" customWidth="1"/>
+    <col min="44" max="44" width="27.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -7706,8 +6919,29 @@
       <c r="AE1">
         <v>5</v>
       </c>
+      <c r="AG1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>2</v>
+      </c>
+      <c r="AK1">
+        <v>3</v>
+      </c>
+      <c r="AL1">
+        <v>4</v>
+      </c>
+      <c r="AM1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7792,8 +7026,38 @@
       <c r="AE2" t="s">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -7878,8 +7142,40 @@
       <c r="AE3">
         <v>5.8999776840209898E-2</v>
       </c>
+      <c r="AG3">
+        <v>50</v>
+      </c>
+      <c r="AH3">
+        <v>6.9999933242797796E-2</v>
+      </c>
+      <c r="AI3">
+        <v>158</v>
+      </c>
+      <c r="AJ3">
+        <v>57</v>
+      </c>
+      <c r="AK3">
+        <v>8.0001354217529297E-3</v>
+      </c>
+      <c r="AL3">
+        <v>4.6999931335449198E-2</v>
+      </c>
+      <c r="AM3">
+        <v>1.1999845504760701E-2</v>
+      </c>
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <f>Z3/AH3 - 1</f>
+        <v>0.97142720903538327</v>
+      </c>
+      <c r="AR3">
+        <f>AA3/AI3 - 1</f>
+        <v>5.7468354430379751</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>51</v>
       </c>
@@ -7964,8 +7260,40 @@
       <c r="AE4">
         <v>1.49998664855957E-2</v>
       </c>
+      <c r="AG4">
+        <v>51</v>
+      </c>
+      <c r="AH4">
+        <v>7.0999860763549805E-2</v>
+      </c>
+      <c r="AI4">
+        <v>147</v>
+      </c>
+      <c r="AJ4">
+        <v>51</v>
+      </c>
+      <c r="AK4">
+        <v>6.99973106384277E-3</v>
+      </c>
+      <c r="AL4">
+        <v>4.9000024795532199E-2</v>
+      </c>
+      <c r="AM4">
+        <v>1.40001773834228E-2</v>
+      </c>
+      <c r="AP4">
+        <v>51</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ53" si="0">Z4/AH4 - 1</f>
+        <v>1.4086871841366699E-2</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR53" si="1">AA4/AI4 - 1</f>
+        <v>0.12244897959183665</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
@@ -8050,8 +7378,40 @@
       <c r="AE5">
         <v>1.9999265670776301E-2</v>
       </c>
+      <c r="AG5">
+        <v>52</v>
+      </c>
+      <c r="AH5">
+        <v>6.6999912261962793E-2</v>
+      </c>
+      <c r="AI5">
+        <v>45</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>8.0006122589111293E-3</v>
+      </c>
+      <c r="AL5">
+        <v>5.1999807357788003E-2</v>
+      </c>
+      <c r="AM5">
+        <v>4.9996376037597604E-3</v>
+      </c>
+      <c r="AP5">
+        <v>52</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>0.25373463621547554</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="1"/>
+        <v>6.9555555555555557</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -8136,8 +7496,40 @@
       <c r="AE6">
         <v>0.16300153732299799</v>
       </c>
+      <c r="AG6">
+        <v>53</v>
+      </c>
+      <c r="AH6">
+        <v>7.2000026702880804E-2</v>
+      </c>
+      <c r="AI6">
+        <v>66</v>
+      </c>
+      <c r="AJ6">
+        <v>11</v>
+      </c>
+      <c r="AK6">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="AL6">
+        <v>5.50000667572021E-2</v>
+      </c>
+      <c r="AM6">
+        <v>6.0000419616699201E-3</v>
+      </c>
+      <c r="AP6">
+        <v>53</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="0"/>
+        <v>3.2777740984800854</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="1"/>
+        <v>62.363636363636367</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>54</v>
       </c>
@@ -8222,8 +7614,40 @@
       <c r="AE7">
         <v>4.0000438690185498E-2</v>
       </c>
+      <c r="AG7">
+        <v>54</v>
+      </c>
+      <c r="AH7">
+        <v>0.111000061035156</v>
+      </c>
+      <c r="AI7">
+        <v>689</v>
+      </c>
+      <c r="AJ7">
+        <v>323</v>
+      </c>
+      <c r="AK7">
+        <v>1.1999845504760701E-2</v>
+      </c>
+      <c r="AL7">
+        <v>5.8000087738037102E-2</v>
+      </c>
+      <c r="AM7">
+        <v>3.4000158309936503E-2</v>
+      </c>
+      <c r="AP7">
+        <v>54</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>9.9098305725481506E-2</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="1"/>
+        <v>3.9187227866473107E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>55</v>
       </c>
@@ -8308,8 +7732,40 @@
       <c r="AE8">
         <v>2.4000167846679601E-2</v>
       </c>
+      <c r="AG8">
+        <v>55</v>
+      </c>
+      <c r="AH8">
+        <v>8.2999944686889607E-2</v>
+      </c>
+      <c r="AI8">
+        <v>92</v>
+      </c>
+      <c r="AJ8">
+        <v>23</v>
+      </c>
+      <c r="AK8">
+        <v>4.9998760223388602E-3</v>
+      </c>
+      <c r="AL8">
+        <v>6.5999984741210896E-2</v>
+      </c>
+      <c r="AM8">
+        <v>9.0000629425048793E-3</v>
+      </c>
+      <c r="AP8">
+        <v>55</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>0.25301111376020557</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="1"/>
+        <v>4.1086956521739131</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -8394,8 +7850,40 @@
       <c r="AE9">
         <v>8.9998245239257795E-3</v>
       </c>
+      <c r="AG9">
+        <v>56</v>
+      </c>
+      <c r="AH9">
+        <v>9.8000049591064398E-2</v>
+      </c>
+      <c r="AI9">
+        <v>180</v>
+      </c>
+      <c r="AJ9">
+        <v>66</v>
+      </c>
+      <c r="AK9">
+        <v>5.0001144409179601E-3</v>
+      </c>
+      <c r="AL9">
+        <v>6.9999933242797796E-2</v>
+      </c>
+      <c r="AM9">
+        <v>2.0999908447265601E-2</v>
+      </c>
+      <c r="AP9">
+        <v>56</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>-0.20408376759552593</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="1"/>
+        <v>-0.70555555555555549</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>57</v>
       </c>
@@ -8480,8 +7968,40 @@
       <c r="AE10">
         <v>5.4000377655029297E-2</v>
       </c>
+      <c r="AG10">
+        <v>57</v>
+      </c>
+      <c r="AH10">
+        <v>8.8000059127807603E-2</v>
+      </c>
+      <c r="AI10">
+        <v>72</v>
+      </c>
+      <c r="AJ10">
+        <v>11</v>
+      </c>
+      <c r="AK10">
+        <v>9.9997520446777292E-3</v>
+      </c>
+      <c r="AL10">
+        <v>6.7999839782714802E-2</v>
+      </c>
+      <c r="AM10">
+        <v>7.0002079010009696E-3</v>
+      </c>
+      <c r="AP10">
+        <v>57</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="0"/>
+        <v>1.1477245942145502</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="1"/>
+        <v>7.4444444444444446</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58</v>
       </c>
@@ -8566,8 +8086,40 @@
       <c r="AE11">
         <v>1.30002498626708E-2</v>
       </c>
+      <c r="AG11">
+        <v>58</v>
+      </c>
+      <c r="AH11">
+        <v>9.5999956130981404E-2</v>
+      </c>
+      <c r="AI11">
+        <v>104</v>
+      </c>
+      <c r="AJ11">
+        <v>29</v>
+      </c>
+      <c r="AK11">
+        <v>5.0001144409179601E-3</v>
+      </c>
+      <c r="AL11">
+        <v>7.4000120162963798E-2</v>
+      </c>
+      <c r="AM11">
+        <v>1.39997005462646E-2</v>
+      </c>
+      <c r="AP11">
+        <v>58</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="0"/>
+        <v>-1.0415916434250438E-2</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="1"/>
+        <v>0.44230769230769229</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59</v>
       </c>
@@ -8652,8 +8204,40 @@
       <c r="AE12">
         <v>7.6000928878784096E-2</v>
       </c>
+      <c r="AG12">
+        <v>59</v>
+      </c>
+      <c r="AH12">
+        <v>0.49399995803833002</v>
+      </c>
+      <c r="AI12">
+        <v>6124</v>
+      </c>
+      <c r="AJ12">
+        <v>3035</v>
+      </c>
+      <c r="AK12">
+        <v>0.10899806022644</v>
+      </c>
+      <c r="AL12">
+        <v>7.8999996185302707E-2</v>
+      </c>
+      <c r="AM12">
+        <v>0.267002344131469</v>
+      </c>
+      <c r="AP12">
+        <v>59</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="0"/>
+        <v>-0.63360321932677177</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="1"/>
+        <v>-0.78461789679947747</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -8738,8 +8322,40 @@
       <c r="AE13">
         <v>7.9999446868896401E-2</v>
       </c>
+      <c r="AG13">
+        <v>60</v>
+      </c>
+      <c r="AH13">
+        <v>0.20799994468688901</v>
+      </c>
+      <c r="AI13">
+        <v>208</v>
+      </c>
+      <c r="AJ13">
+        <v>79</v>
+      </c>
+      <c r="AK13">
+        <v>1.6000509262084898E-2</v>
+      </c>
+      <c r="AL13">
+        <v>0.15499997138977001</v>
+      </c>
+      <c r="AM13">
+        <v>3.2999515533447203E-2</v>
+      </c>
+      <c r="AP13">
+        <v>60</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>0.13461483353679427</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="1"/>
+        <v>3.1490384615384617</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -8824,8 +8440,40 @@
       <c r="AE14">
         <v>1.0000228881835899E-2</v>
       </c>
+      <c r="AG14">
+        <v>61</v>
+      </c>
+      <c r="AH14">
+        <v>0.13900017738342199</v>
+      </c>
+      <c r="AI14">
+        <v>468</v>
+      </c>
+      <c r="AJ14">
+        <v>209</v>
+      </c>
+      <c r="AK14">
+        <v>2.0999908447265601E-2</v>
+      </c>
+      <c r="AL14">
+        <v>8.3000183105468694E-2</v>
+      </c>
+      <c r="AM14">
+        <v>2.4999856948852501E-2</v>
+      </c>
+      <c r="AP14">
+        <v>61</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="0"/>
+        <v>-0.25899428653759837</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="1"/>
+        <v>-0.85256410256410253</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62</v>
       </c>
@@ -8910,8 +8558,40 @@
       <c r="AE15">
         <v>3.0999422073364199E-2</v>
       </c>
+      <c r="AG15">
+        <v>62</v>
+      </c>
+      <c r="AH15">
+        <v>0.11299991607666</v>
+      </c>
+      <c r="AI15">
+        <v>59</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>1.20000839233398E-2</v>
+      </c>
+      <c r="AL15">
+        <v>8.8999986648559501E-2</v>
+      </c>
+      <c r="AM15">
+        <v>8.9998245239257795E-3</v>
+      </c>
+      <c r="AP15">
+        <v>62</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0.23893990159423528</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>7.7627118644067803</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>63</v>
       </c>
@@ -8996,8 +8676,40 @@
       <c r="AE16">
         <v>1.8999576568603498E-2</v>
       </c>
+      <c r="AG16">
+        <v>63</v>
+      </c>
+      <c r="AH16">
+        <v>0.76199984550475997</v>
+      </c>
+      <c r="AI16">
+        <v>9667</v>
+      </c>
+      <c r="AJ16">
+        <v>4806</v>
+      </c>
+      <c r="AK16">
+        <v>0.17500042915344199</v>
+      </c>
+      <c r="AL16">
+        <v>9.8999977111816406E-2</v>
+      </c>
+      <c r="AM16">
+        <v>0.412999868392944</v>
+      </c>
+      <c r="AP16">
+        <v>63</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="0"/>
+        <v>-0.84514428550912235</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="1"/>
+        <v>-0.98706941139960691</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -9082,8 +8794,40 @@
       <c r="AE17">
         <v>5.7000160217285101E-2</v>
       </c>
+      <c r="AG17">
+        <v>64</v>
+      </c>
+      <c r="AH17">
+        <v>0.13700008392333901</v>
+      </c>
+      <c r="AI17">
+        <v>316</v>
+      </c>
+      <c r="AJ17">
+        <v>131</v>
+      </c>
+      <c r="AK17">
+        <v>9.0003013610839792E-3</v>
+      </c>
+      <c r="AL17">
+        <v>9.70001220703125E-2</v>
+      </c>
+      <c r="AM17">
+        <v>2.69997119903564E-2</v>
+      </c>
+      <c r="AP17">
+        <v>64</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="0"/>
+        <v>0.31386829556925266</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="1"/>
+        <v>1.5949367088607596</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>65</v>
       </c>
@@ -9168,8 +8912,40 @@
       <c r="AE18">
         <v>1.20003223419189E-2</v>
       </c>
+      <c r="AG18">
+        <v>65</v>
+      </c>
+      <c r="AH18">
+        <v>0.14199995994567799</v>
+      </c>
+      <c r="AI18">
+        <v>223</v>
+      </c>
+      <c r="AJ18">
+        <v>86</v>
+      </c>
+      <c r="AK18">
+        <v>1.20000839233398E-2</v>
+      </c>
+      <c r="AL18">
+        <v>0.105000019073486</v>
+      </c>
+      <c r="AM18">
+        <v>2.0999908447265601E-2</v>
+      </c>
+      <c r="AP18">
+        <v>65</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="0"/>
+        <v>-0.13380323074056111</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="1"/>
+        <v>-0.726457399103139</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>66</v>
       </c>
@@ -9254,8 +9030,40 @@
       <c r="AE19">
         <v>2.1999835968017498E-2</v>
       </c>
+      <c r="AG19">
+        <v>66</v>
+      </c>
+      <c r="AH19">
+        <v>0.14199995994567799</v>
+      </c>
+      <c r="AI19">
+        <v>89</v>
+      </c>
+      <c r="AJ19">
+        <v>15</v>
+      </c>
+      <c r="AK19">
+        <v>5.9998035430908203E-3</v>
+      </c>
+      <c r="AL19">
+        <v>0.11199998855590799</v>
+      </c>
+      <c r="AM19">
+        <v>2.0000219345092701E-2</v>
+      </c>
+      <c r="AP19">
+        <v>66</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="0"/>
+        <v>7.041745090171414E-3</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="1"/>
+        <v>1.202247191011236</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>67</v>
       </c>
@@ -9340,8 +9148,40 @@
       <c r="AE20">
         <v>2.20000743865966E-2</v>
       </c>
+      <c r="AG20">
+        <v>67</v>
+      </c>
+      <c r="AH20">
+        <v>0.21799993515014601</v>
+      </c>
+      <c r="AI20">
+        <v>797</v>
+      </c>
+      <c r="AJ20">
+        <v>369</v>
+      </c>
+      <c r="AK20">
+        <v>1.9999742507934501E-2</v>
+      </c>
+      <c r="AL20">
+        <v>0.12400007247924801</v>
+      </c>
+      <c r="AM20">
+        <v>6.0000658035278299E-2</v>
+      </c>
+      <c r="AP20">
+        <v>67</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="0"/>
+        <v>-0.29816439512751147</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="1"/>
+        <v>-0.67503136762860727</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>68</v>
       </c>
@@ -9426,8 +9266,40 @@
       <c r="AE21">
         <v>9.9999904632568307E-3</v>
       </c>
+      <c r="AG21">
+        <v>68</v>
+      </c>
+      <c r="AH21">
+        <v>0.154000043869018</v>
+      </c>
+      <c r="AI21">
+        <v>100</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>9.0003013610839792E-3</v>
+      </c>
+      <c r="AL21">
+        <v>0.12299990653991601</v>
+      </c>
+      <c r="AM21">
+        <v>1.6999721527099599E-2</v>
+      </c>
+      <c r="AP21">
+        <v>68</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="0"/>
+        <v>-7.7922600681506693E-2</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>69</v>
       </c>
@@ -9512,8 +9384,40 @@
       <c r="AE22">
         <v>9.9999904632568307E-3</v>
       </c>
+      <c r="AG22">
+        <v>69</v>
+      </c>
+      <c r="AH22">
+        <v>0.15600013732910101</v>
+      </c>
+      <c r="AI22">
+        <v>74</v>
+      </c>
+      <c r="AJ22">
+        <v>8</v>
+      </c>
+      <c r="AK22">
+        <v>6.9999694824218698E-3</v>
+      </c>
+      <c r="AL22">
+        <v>0.12699985504150299</v>
+      </c>
+      <c r="AM22">
+        <v>1.7000198364257799E-2</v>
+      </c>
+      <c r="AP22">
+        <v>69</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="0"/>
+        <v>-5.7692660382203886E-2</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="1"/>
+        <v>-0.1216216216216216</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>70</v>
       </c>
@@ -9598,8 +9502,40 @@
       <c r="AE23">
         <v>1.60002708435058E-2</v>
       </c>
+      <c r="AG23">
+        <v>70</v>
+      </c>
+      <c r="AH23">
+        <v>0.162999868392944</v>
+      </c>
+      <c r="AI23">
+        <v>77</v>
+      </c>
+      <c r="AJ23">
+        <v>8</v>
+      </c>
+      <c r="AK23">
+        <v>6.9994926452636701E-3</v>
+      </c>
+      <c r="AL23">
+        <v>0.127999782562255</v>
+      </c>
+      <c r="AM23">
+        <v>1.5000581741332999E-2</v>
+      </c>
+      <c r="AP23">
+        <v>70</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="0"/>
+        <v>-4.9079162345632255E-2</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="1"/>
+        <v>-0.18181818181818177</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>71</v>
       </c>
@@ -9684,8 +9620,40 @@
       <c r="AE24">
         <v>3.19998264312744E-2</v>
       </c>
+      <c r="AG24">
+        <v>71</v>
+      </c>
+      <c r="AH24">
+        <v>0.18499994277954099</v>
+      </c>
+      <c r="AI24">
+        <v>256</v>
+      </c>
+      <c r="AJ24">
+        <v>96</v>
+      </c>
+      <c r="AK24">
+        <v>1.0999917984008701E-2</v>
+      </c>
+      <c r="AL24">
+        <v>0.13700008392333901</v>
+      </c>
+      <c r="AM24">
+        <v>3.10001373291015E-2</v>
+      </c>
+      <c r="AP24">
+        <v>71</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="0"/>
+        <v>0.45405479247266833</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="1"/>
+        <v>0.11328125</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>72</v>
       </c>
@@ -9770,8 +9738,40 @@
       <c r="AE25">
         <v>1.5999555587768499E-2</v>
       </c>
+      <c r="AG25">
+        <v>72</v>
+      </c>
+      <c r="AH25">
+        <v>0.33899998664855902</v>
+      </c>
+      <c r="AI25">
+        <v>2063</v>
+      </c>
+      <c r="AJ25">
+        <v>1001</v>
+      </c>
+      <c r="AK25">
+        <v>5.2999258041381801E-2</v>
+      </c>
+      <c r="AL25">
+        <v>0.14499998092651301</v>
+      </c>
+      <c r="AM25">
+        <v>0.13000106811523399</v>
+      </c>
+      <c r="AP25">
+        <v>72</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="0"/>
+        <v>-0.49852482893993755</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="1"/>
+        <v>-0.95152690256907413</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>73</v>
       </c>
@@ -9856,8 +9856,40 @@
       <c r="AE26">
         <v>1.99990272521972E-2</v>
       </c>
+      <c r="AG26">
+        <v>73</v>
+      </c>
+      <c r="AH26">
+        <v>0.23100018501281699</v>
+      </c>
+      <c r="AI26">
+        <v>132</v>
+      </c>
+      <c r="AJ26">
+        <v>33</v>
+      </c>
+      <c r="AK26">
+        <v>1.10001564025878E-2</v>
+      </c>
+      <c r="AL26">
+        <v>0.18799996376037501</v>
+      </c>
+      <c r="AM26">
+        <v>2.4999856948852501E-2</v>
+      </c>
+      <c r="AP26">
+        <v>73</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="0"/>
+        <v>-4.7619686546907625E-2</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="1"/>
+        <v>-0.29545454545454541</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>74</v>
       </c>
@@ -9942,8 +9974,40 @@
       <c r="AE27">
         <v>1.6000509262084898E-2</v>
       </c>
+      <c r="AG27">
+        <v>74</v>
+      </c>
+      <c r="AH27">
+        <v>0.191999912261962</v>
+      </c>
+      <c r="AI27">
+        <v>77</v>
+      </c>
+      <c r="AJ27">
+        <v>4</v>
+      </c>
+      <c r="AK27">
+        <v>9.0003013610839792E-3</v>
+      </c>
+      <c r="AL27">
+        <v>0.15999984741210899</v>
+      </c>
+      <c r="AM27">
+        <v>1.89998149871826E-2</v>
+      </c>
+      <c r="AP27">
+        <v>74</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="0"/>
+        <v>-3.6456949283870776E-2</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="1"/>
+        <v>0.37662337662337664</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>75</v>
       </c>
@@ -10028,8 +10092,40 @@
       <c r="AE28">
         <v>0.31900048255920399</v>
       </c>
+      <c r="AG28">
+        <v>75</v>
+      </c>
+      <c r="AH28">
+        <v>0.200999975204467</v>
+      </c>
+      <c r="AI28">
+        <v>73</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>7.9998970031738195E-3</v>
+      </c>
+      <c r="AL28">
+        <v>0.167999982833862</v>
+      </c>
+      <c r="AM28">
+        <v>2.1000146865844699E-2</v>
+      </c>
+      <c r="AP28">
+        <v>75</v>
+      </c>
+      <c r="AQ28">
+        <f t="shared" si="0"/>
+        <v>1.9751249918451439</v>
+      </c>
+      <c r="AR28">
+        <f t="shared" si="1"/>
+        <v>60.61643835616438</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>76</v>
       </c>
@@ -10114,8 +10210,40 @@
       <c r="AE29">
         <v>2.6000261306762602E-2</v>
       </c>
+      <c r="AG29">
+        <v>76</v>
+      </c>
+      <c r="AH29">
+        <v>0.26699995994567799</v>
+      </c>
+      <c r="AI29">
+        <v>233</v>
+      </c>
+      <c r="AJ29">
+        <v>83</v>
+      </c>
+      <c r="AK29">
+        <v>1.8000602722167899E-2</v>
+      </c>
+      <c r="AL29">
+        <v>0.200999975204467</v>
+      </c>
+      <c r="AM29">
+        <v>3.7999391555786098E-2</v>
+      </c>
+      <c r="AP29">
+        <v>76</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="0"/>
+        <v>2.6218011052980161E-2</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="1"/>
+        <v>-0.39914163090128751</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>77</v>
       </c>
@@ -10200,8 +10328,40 @@
       <c r="AE30">
         <v>5.7999849319458001E-2</v>
       </c>
+      <c r="AG30">
+        <v>77</v>
+      </c>
+      <c r="AH30">
+        <v>0.220999956130981</v>
+      </c>
+      <c r="AI30">
+        <v>169</v>
+      </c>
+      <c r="AJ30">
+        <v>51</v>
+      </c>
+      <c r="AK30">
+        <v>1.8000364303588801E-2</v>
+      </c>
+      <c r="AL30">
+        <v>0.17300009727478</v>
+      </c>
+      <c r="AM30">
+        <v>2.29997634887695E-2</v>
+      </c>
+      <c r="AP30">
+        <v>77</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="0"/>
+        <v>0.19004553687882941</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="1"/>
+        <v>3.0946745562130173</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>78</v>
       </c>
@@ -10286,8 +10446,40 @@
       <c r="AE31">
         <v>6.3999176025390597E-2</v>
       </c>
+      <c r="AG31">
+        <v>78</v>
+      </c>
+      <c r="AH31">
+        <v>0.41999983787536599</v>
+      </c>
+      <c r="AI31">
+        <v>102</v>
+      </c>
+      <c r="AJ31">
+        <v>16</v>
+      </c>
+      <c r="AK31">
+        <v>1.20000839233398E-2</v>
+      </c>
+      <c r="AL31">
+        <v>0.38199996948242099</v>
+      </c>
+      <c r="AM31">
+        <v>2.3999929428100499E-2</v>
+      </c>
+      <c r="AP31">
+        <v>78</v>
+      </c>
+      <c r="AQ31">
+        <f t="shared" si="0"/>
+        <v>-0.26190461323098702</v>
+      </c>
+      <c r="AR31">
+        <f t="shared" si="1"/>
+        <v>3.8529411764705879</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>79</v>
       </c>
@@ -10372,8 +10564,40 @@
       <c r="AE32">
         <v>2.4999856948852501E-2</v>
       </c>
+      <c r="AG32">
+        <v>79</v>
+      </c>
+      <c r="AH32">
+        <v>0.22399997711181599</v>
+      </c>
+      <c r="AI32">
+        <v>75</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1.0000228881835899E-2</v>
+      </c>
+      <c r="AL32">
+        <v>0.18499994277954099</v>
+      </c>
+      <c r="AM32">
+        <v>2.29997634887695E-2</v>
+      </c>
+      <c r="AP32">
+        <v>79</v>
+      </c>
+      <c r="AQ32">
+        <f t="shared" si="0"/>
+        <v>3.124986695390497E-2</v>
+      </c>
+      <c r="AR32">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>80</v>
       </c>
@@ -10458,8 +10682,40 @@
       <c r="AE33">
         <v>1.9000291824340799E-2</v>
       </c>
+      <c r="AG33">
+        <v>80</v>
+      </c>
+      <c r="AH33">
+        <v>0.24200010299682601</v>
+      </c>
+      <c r="AI33">
+        <v>139</v>
+      </c>
+      <c r="AJ33">
+        <v>34</v>
+      </c>
+      <c r="AK33">
+        <v>1.80001258850097E-2</v>
+      </c>
+      <c r="AL33">
+        <v>0.19799995422363201</v>
+      </c>
+      <c r="AM33">
+        <v>2.1000146865844699E-2</v>
+      </c>
+      <c r="AP33">
+        <v>80</v>
+      </c>
+      <c r="AQ33">
+        <f t="shared" si="0"/>
+        <v>-5.7851948036594991E-2</v>
+      </c>
+      <c r="AR33">
+        <f t="shared" si="1"/>
+        <v>-0.20143884892086328</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>81</v>
       </c>
@@ -10544,8 +10800,40 @@
       <c r="AE34">
         <v>0.79000115394592196</v>
       </c>
+      <c r="AG34">
+        <v>81</v>
+      </c>
+      <c r="AH34">
+        <v>0.251000165939331</v>
+      </c>
+      <c r="AI34">
+        <v>90</v>
+      </c>
+      <c r="AJ34">
+        <v>7</v>
+      </c>
+      <c r="AK34">
+        <v>1.80001258850097E-2</v>
+      </c>
+      <c r="AL34">
+        <v>0.207000017166137</v>
+      </c>
+      <c r="AM34">
+        <v>1.9999980926513599E-2</v>
+      </c>
+      <c r="AP34">
+        <v>81</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="0"/>
+        <v>6.4780821280221295</v>
+      </c>
+      <c r="AR34">
+        <f t="shared" si="1"/>
+        <v>111.37777777777778</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>82</v>
       </c>
@@ -10630,8 +10918,40 @@
       <c r="AE35">
         <v>0.27700042724609297</v>
       </c>
+      <c r="AG35">
+        <v>82</v>
+      </c>
+      <c r="AH35">
+        <v>0.25599980354308999</v>
+      </c>
+      <c r="AI35">
+        <v>89</v>
+      </c>
+      <c r="AJ35">
+        <v>8</v>
+      </c>
+      <c r="AK35">
+        <v>1.29997730255126E-2</v>
+      </c>
+      <c r="AL35">
+        <v>0.21299982070922799</v>
+      </c>
+      <c r="AM35">
+        <v>2.4000167846679601E-2</v>
+      </c>
+      <c r="AP35">
+        <v>82</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="0"/>
+        <v>1.3515642971629163</v>
+      </c>
+      <c r="AR35">
+        <f t="shared" si="1"/>
+        <v>40.50561797752809</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>83</v>
       </c>
@@ -10716,8 +11036,40 @@
       <c r="AE36">
         <v>3.10001373291015E-2</v>
       </c>
+      <c r="AG36">
+        <v>83</v>
+      </c>
+      <c r="AH36">
+        <v>0.28600001335143999</v>
+      </c>
+      <c r="AI36">
+        <v>116</v>
+      </c>
+      <c r="AJ36">
+        <v>23</v>
+      </c>
+      <c r="AK36">
+        <v>1.5999555587768499E-2</v>
+      </c>
+      <c r="AL36">
+        <v>0.236000061035156</v>
+      </c>
+      <c r="AM36">
+        <v>3.3000469207763602E-2</v>
+      </c>
+      <c r="AP36">
+        <v>83</v>
+      </c>
+      <c r="AQ36">
+        <f t="shared" si="0"/>
+        <v>-7.6923333425034102E-2</v>
+      </c>
+      <c r="AR36">
+        <f t="shared" si="1"/>
+        <v>0.35344827586206895</v>
+      </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>84</v>
       </c>
@@ -10802,8 +11154,40 @@
       <c r="AE37">
         <v>3.7000894546508699E-2</v>
       </c>
+      <c r="AG37">
+        <v>84</v>
+      </c>
+      <c r="AH37">
+        <v>0.53699994087219205</v>
+      </c>
+      <c r="AI37">
+        <v>178</v>
+      </c>
+      <c r="AJ37">
+        <v>52</v>
+      </c>
+      <c r="AK37">
+        <v>1.39999389648437E-2</v>
+      </c>
+      <c r="AL37">
+        <v>0.482000112533569</v>
+      </c>
+      <c r="AM37">
+        <v>3.6000013351440402E-2</v>
+      </c>
+      <c r="AP37">
+        <v>84</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="0"/>
+        <v>-0.47299765000060012</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" si="1"/>
+        <v>0.202247191011236</v>
+      </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>85</v>
       </c>
@@ -10888,8 +11272,40 @@
       <c r="AE38">
         <v>2.6999950408935498E-2</v>
       </c>
+      <c r="AG38">
+        <v>85</v>
+      </c>
+      <c r="AH38">
+        <v>0.55900001525878895</v>
+      </c>
+      <c r="AI38">
+        <v>2759</v>
+      </c>
+      <c r="AJ38">
+        <v>1343</v>
+      </c>
+      <c r="AK38">
+        <v>7.5999975204467704E-2</v>
+      </c>
+      <c r="AL38">
+        <v>0.22799992561340299</v>
+      </c>
+      <c r="AM38">
+        <v>0.228999853134155</v>
+      </c>
+      <c r="AP38">
+        <v>85</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="0"/>
+        <v>2.1753131429624277</v>
+      </c>
+      <c r="AR38">
+        <f t="shared" si="1"/>
+        <v>-0.96737948532076845</v>
+      </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>86</v>
       </c>
@@ -10974,8 +11390,40 @@
       <c r="AE39">
         <v>0.79500126838684004</v>
       </c>
+      <c r="AG39">
+        <v>86</v>
+      </c>
+      <c r="AH39">
+        <v>0.66000008583068803</v>
+      </c>
+      <c r="AI39">
+        <v>3235</v>
+      </c>
+      <c r="AJ39">
+        <v>1579</v>
+      </c>
+      <c r="AK39">
+        <v>8.3001613616943304E-2</v>
+      </c>
+      <c r="AL39">
+        <v>0.27300000190734802</v>
+      </c>
+      <c r="AM39">
+        <v>0.27699804306030201</v>
+      </c>
+      <c r="AP39">
+        <v>86</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="0"/>
+        <v>1.76666626930241</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="1"/>
+        <v>2.1313755795981453</v>
+      </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>87</v>
       </c>
@@ -11060,8 +11508,40 @@
       <c r="AE40">
         <v>4.4000148773193297E-2</v>
       </c>
+      <c r="AG40">
+        <v>87</v>
+      </c>
+      <c r="AH40">
+        <v>0.33799982070922802</v>
+      </c>
+      <c r="AI40">
+        <v>424</v>
+      </c>
+      <c r="AJ40">
+        <v>173</v>
+      </c>
+      <c r="AK40">
+        <v>2.5000095367431599E-2</v>
+      </c>
+      <c r="AL40">
+        <v>0.24900007247924799</v>
+      </c>
+      <c r="AM40">
+        <v>5.1999568939208901E-2</v>
+      </c>
+      <c r="AP40">
+        <v>87</v>
+      </c>
+      <c r="AQ40">
+        <f t="shared" si="0"/>
+        <v>0.12721965698743043</v>
+      </c>
+      <c r="AR40">
+        <f t="shared" si="1"/>
+        <v>-0.6367924528301887</v>
+      </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>88</v>
       </c>
@@ -11113,8 +11593,40 @@
       <c r="AE41">
         <v>0.89999794960021895</v>
       </c>
+      <c r="AG41">
+        <v>88</v>
+      </c>
+      <c r="AH41">
+        <v>0.460999965667724</v>
+      </c>
+      <c r="AI41">
+        <v>108</v>
+      </c>
+      <c r="AJ41">
+        <v>16</v>
+      </c>
+      <c r="AK41">
+        <v>2.8999805450439401E-2</v>
+      </c>
+      <c r="AL41">
+        <v>0.394000053405761</v>
+      </c>
+      <c r="AM41">
+        <v>3.2000303268432603E-2</v>
+      </c>
+      <c r="AP41">
+        <v>88</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="0"/>
+        <v>3.6789592743799808</v>
+      </c>
+      <c r="AR41">
+        <f t="shared" si="1"/>
+        <v>92.555555555555557</v>
+      </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>89</v>
       </c>
@@ -11199,8 +11711,40 @@
       <c r="AE42">
         <v>3.7000417709350503E-2</v>
       </c>
+      <c r="AG42">
+        <v>89</v>
+      </c>
+      <c r="AH42">
+        <v>0.42599987983703602</v>
+      </c>
+      <c r="AI42">
+        <v>845</v>
+      </c>
+      <c r="AJ42">
+        <v>382</v>
+      </c>
+      <c r="AK42">
+        <v>3.2999038696289E-2</v>
+      </c>
+      <c r="AL42">
+        <v>0.27300000190734802</v>
+      </c>
+      <c r="AM42">
+        <v>0.109001159667968</v>
+      </c>
+      <c r="AP42">
+        <v>89</v>
+      </c>
+      <c r="AQ42">
+        <f t="shared" si="0"/>
+        <v>-0.22535207326280526</v>
+      </c>
+      <c r="AR42">
+        <f t="shared" si="1"/>
+        <v>-0.7940828402366864</v>
+      </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90</v>
       </c>
@@ -11285,8 +11829,40 @@
       <c r="AE43">
         <v>0.119000434875488</v>
       </c>
+      <c r="AG43">
+        <v>90</v>
+      </c>
+      <c r="AH43">
+        <v>0.5</v>
+      </c>
+      <c r="AI43">
+        <v>179</v>
+      </c>
+      <c r="AJ43">
+        <v>49</v>
+      </c>
+      <c r="AK43">
+        <v>2.10003852844238E-2</v>
+      </c>
+      <c r="AL43">
+        <v>0.41200017929077098</v>
+      </c>
+      <c r="AM43">
+        <v>4.6999454498291002E-2</v>
+      </c>
+      <c r="AP43">
+        <v>90</v>
+      </c>
+      <c r="AQ43">
+        <f t="shared" si="0"/>
+        <v>-7.0000171661377952E-2</v>
+      </c>
+      <c r="AR43">
+        <f t="shared" si="1"/>
+        <v>3.2346368715083802</v>
+      </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>91</v>
       </c>
@@ -11338,8 +11914,40 @@
       <c r="AE44">
         <v>1.1649980545043901</v>
       </c>
+      <c r="AG44">
+        <v>91</v>
+      </c>
+      <c r="AH44">
+        <v>0.37299990653991699</v>
+      </c>
+      <c r="AI44">
+        <v>361</v>
+      </c>
+      <c r="AJ44">
+        <v>140</v>
+      </c>
+      <c r="AK44">
+        <v>2.4999618530273399E-2</v>
+      </c>
+      <c r="AL44">
+        <v>0.28399991989135698</v>
+      </c>
+      <c r="AM44">
+        <v>5.3000211715698201E-2</v>
+      </c>
+      <c r="AP44">
+        <v>91</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="0"/>
+        <v>5.815015260710461</v>
+      </c>
+      <c r="AR44">
+        <f t="shared" si="1"/>
+        <v>26.94459833795014</v>
+      </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>92</v>
       </c>
@@ -11409,8 +12017,40 @@
       <c r="AE45">
         <v>3.3999919891357401E-2</v>
       </c>
+      <c r="AG45">
+        <v>92</v>
+      </c>
+      <c r="AH45">
+        <v>0.37899994850158603</v>
+      </c>
+      <c r="AI45">
+        <v>197</v>
+      </c>
+      <c r="AJ45">
+        <v>57</v>
+      </c>
+      <c r="AK45">
+        <v>2.4999618530273399E-2</v>
+      </c>
+      <c r="AL45">
+        <v>0.29999995231628401</v>
+      </c>
+      <c r="AM45">
+        <v>3.90000343322753E-2</v>
+      </c>
+      <c r="AP45">
+        <v>92</v>
+      </c>
+      <c r="AQ45">
+        <f t="shared" si="0"/>
+        <v>-4.7493113224934214E-2</v>
+      </c>
+      <c r="AR45">
+        <f t="shared" si="1"/>
+        <v>-0.51776649746192893</v>
+      </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>93</v>
       </c>
@@ -11462,8 +12102,40 @@
       <c r="AE46">
         <v>1.04699659347534</v>
       </c>
+      <c r="AG46">
+        <v>93</v>
+      </c>
+      <c r="AH46">
+        <v>3.6370000839233398</v>
+      </c>
+      <c r="AI46">
+        <v>10090</v>
+      </c>
+      <c r="AJ46">
+        <v>4964</v>
+      </c>
+      <c r="AK46">
+        <v>1.3640003204345701</v>
+      </c>
+      <c r="AL46">
+        <v>0.60199999809265103</v>
+      </c>
+      <c r="AM46">
+        <v>1.4850001335144001</v>
+      </c>
+      <c r="AP46">
+        <v>93</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="0"/>
+        <v>0.16552102947527447</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="1"/>
+        <v>1.883052527254625E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>94</v>
       </c>
@@ -11548,8 +12220,40 @@
       <c r="AE47">
         <v>2.8000116348266602E-2</v>
       </c>
+      <c r="AG47">
+        <v>94</v>
+      </c>
+      <c r="AH47">
+        <v>0.394000053405761</v>
+      </c>
+      <c r="AI47">
+        <v>93</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.39999389648437E-2</v>
+      </c>
+      <c r="AL47">
+        <v>0.33200001716613697</v>
+      </c>
+      <c r="AM47">
+        <v>3.59997749328613E-2</v>
+      </c>
+      <c r="AP47">
+        <v>94</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="0"/>
+        <v>-3.0457061666897101E-2</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="1"/>
+        <v>0.13978494623655924</v>
+      </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
@@ -11634,8 +12338,40 @@
       <c r="AE48">
         <v>0.39199948310852001</v>
       </c>
+      <c r="AG48">
+        <v>95</v>
+      </c>
+      <c r="AH48">
+        <v>0.39800000190734802</v>
+      </c>
+      <c r="AI48">
+        <v>90</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>3.2000064849853502E-2</v>
+      </c>
+      <c r="AL48">
+        <v>0.32299995422363198</v>
+      </c>
+      <c r="AM48">
+        <v>3.10001373291015E-2</v>
+      </c>
+      <c r="AP48">
+        <v>95</v>
+      </c>
+      <c r="AQ48">
+        <f t="shared" si="0"/>
+        <v>1.4949749390924434</v>
+      </c>
+      <c r="AR48">
+        <f t="shared" si="1"/>
+        <v>50.822222222222223</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>96</v>
       </c>
@@ -11720,8 +12456,40 @@
       <c r="AE49">
         <v>0.12799954414367601</v>
       </c>
+      <c r="AG49">
+        <v>96</v>
+      </c>
+      <c r="AH49">
+        <v>0.47500014305114702</v>
+      </c>
+      <c r="AI49">
+        <v>124</v>
+      </c>
+      <c r="AJ49">
+        <v>17</v>
+      </c>
+      <c r="AK49">
+        <v>2.4999380111694301E-2</v>
+      </c>
+      <c r="AL49">
+        <v>0.39700007438659601</v>
+      </c>
+      <c r="AM49">
+        <v>3.9000511169433497E-2</v>
+      </c>
+      <c r="AP49">
+        <v>96</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" si="0"/>
+        <v>0.1621050095492893</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" si="1"/>
+        <v>7.7903225806451619</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>97</v>
       </c>
@@ -11773,8 +12541,40 @@
       <c r="AE50">
         <v>1.12999987602233</v>
       </c>
+      <c r="AG50">
+        <v>97</v>
+      </c>
+      <c r="AH50">
+        <v>0.421999931335449</v>
+      </c>
+      <c r="AI50">
+        <v>178</v>
+      </c>
+      <c r="AJ50">
+        <v>45</v>
+      </c>
+      <c r="AK50">
+        <v>2.5000572204589799E-2</v>
+      </c>
+      <c r="AL50">
+        <v>0.33699989318847601</v>
+      </c>
+      <c r="AM50">
+        <v>4.7999620437622001E-2</v>
+      </c>
+      <c r="AP50">
+        <v>97</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="0"/>
+        <v>10.215641730263801</v>
+      </c>
+      <c r="AR50">
+        <f t="shared" si="1"/>
+        <v>55.764044943820224</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>98</v>
       </c>
@@ -11826,8 +12626,40 @@
       <c r="AE51">
         <v>1.1409983634948699</v>
       </c>
+      <c r="AG51">
+        <v>98</v>
+      </c>
+      <c r="AH51">
+        <v>0.451999902725219</v>
+      </c>
+      <c r="AI51">
+        <v>166</v>
+      </c>
+      <c r="AJ51">
+        <v>39</v>
+      </c>
+      <c r="AK51">
+        <v>2.3000001907348602E-2</v>
+      </c>
+      <c r="AL51">
+        <v>0.35899996757507302</v>
+      </c>
+      <c r="AM51">
+        <v>4.6000003814697203E-2</v>
+      </c>
+      <c r="AP51">
+        <v>98</v>
+      </c>
+      <c r="AQ51">
+        <f t="shared" si="0"/>
+        <v>9.6460200704178991</v>
+      </c>
+      <c r="AR51">
+        <f t="shared" si="1"/>
+        <v>59.891566265060241</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>99</v>
       </c>
@@ -11879,8 +12711,40 @@
       <c r="AE52">
         <v>1.45000052452087</v>
       </c>
+      <c r="AG52">
+        <v>99</v>
+      </c>
+      <c r="AH52">
+        <v>1.94599986076354</v>
+      </c>
+      <c r="AI52">
+        <v>5909</v>
+      </c>
+      <c r="AJ52">
+        <v>2912</v>
+      </c>
+      <c r="AK52">
+        <v>0.29399681091308499</v>
+      </c>
+      <c r="AL52">
+        <v>0.71499991416931097</v>
+      </c>
+      <c r="AM52">
+        <v>0.85200190544128396</v>
+      </c>
+      <c r="AP52">
+        <v>99</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="0"/>
+        <v>1.8057556160382577</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="1"/>
+        <v>0.70858013200203085</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>100</v>
       </c>
@@ -11949,11 +12813,52 @@
       </c>
       <c r="AE53">
         <v>4.7999620437622001E-2</v>
+      </c>
+      <c r="AG53">
+        <v>100</v>
+      </c>
+      <c r="AH53">
+        <v>0.43600010871887201</v>
+      </c>
+      <c r="AI53">
+        <v>98</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>2.3999214172363201E-2</v>
+      </c>
+      <c r="AL53">
+        <v>0.36299991607665999</v>
+      </c>
+      <c r="AM53">
+        <v>4.2001008987426702E-2</v>
+      </c>
+      <c r="AP53">
+        <v>100</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="0"/>
+        <v>0.18807284013874059</v>
+      </c>
+      <c r="AR53">
+        <f t="shared" si="1"/>
+        <v>0.40816326530612246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ54">
+        <f>AVERAGE(AQ3:AQ53)</f>
+        <v>0.98165570813351677</v>
+      </c>
+      <c r="AR54">
+        <f>AVERAGE(AR3:AR53)</f>
+        <v>12.023911971261342</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11961,11 +12866,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFA2DEB-E6E3-4635-BE5A-4409763A9C19}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
